--- a/sample-data/exams sqa 2018.xlsx
+++ b/sample-data/exams sqa 2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alic/workspace/examdb/sample-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E999D881-C4A7-074D-9897-D2989DE3F9AC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{62956CDC-CAB2-4448-BAEE-B531ECF7D0C1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="37840" windowHeight="26160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2421,7 +2421,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2483,7 +2482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -2509,7 +2508,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -2535,7 +2534,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2559,7 +2558,7 @@
       </c>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -2583,7 +2582,7 @@
       </c>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -2612,7 +2611,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -2641,7 +2640,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -2665,7 +2664,7 @@
       </c>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -2689,7 +2688,7 @@
       </c>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -2718,7 +2717,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -2747,7 +2746,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -2773,7 +2772,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -2799,7 +2798,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -2828,7 +2827,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -2857,7 +2856,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -2886,7 +2885,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2912,7 +2911,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2941,7 +2940,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -2967,7 +2966,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -2996,7 +2995,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -3025,7 +3024,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -3054,7 +3053,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -3083,7 +3082,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>16</v>
       </c>
@@ -3107,7 +3106,7 @@
       </c>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -3136,7 +3135,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -3165,7 +3164,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -3194,7 +3193,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>16</v>
       </c>
@@ -3220,7 +3219,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
@@ -3249,7 +3248,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
@@ -3278,7 +3277,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>16</v>
       </c>
@@ -3307,7 +3306,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>16</v>
       </c>
@@ -3331,7 +3330,7 @@
       </c>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
@@ -3360,7 +3359,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
@@ -3389,7 +3388,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
@@ -3418,7 +3417,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
@@ -3447,7 +3446,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>16</v>
       </c>
@@ -3471,7 +3470,7 @@
       </c>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>16</v>
       </c>
@@ -3500,7 +3499,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>16</v>
       </c>
@@ -3524,7 +3523,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>16</v>
       </c>
@@ -3553,7 +3552,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
@@ -3577,7 +3576,7 @@
       </c>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>16</v>
       </c>
@@ -3607,7 +3606,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>16</v>
       </c>
@@ -3636,7 +3635,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>16</v>
       </c>
@@ -3662,7 +3661,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>16</v>
       </c>
@@ -3685,7 +3684,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>16</v>
       </c>
@@ -3711,7 +3710,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>16</v>
       </c>
@@ -3740,7 +3739,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>16</v>
       </c>
@@ -3769,7 +3768,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>16</v>
       </c>
@@ -3798,7 +3797,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
@@ -3824,7 +3823,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
@@ -3853,7 +3852,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>16</v>
       </c>
@@ -3882,7 +3881,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>16</v>
       </c>
@@ -3911,7 +3910,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>16</v>
       </c>
@@ -3934,7 +3933,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>16</v>
       </c>
@@ -3957,7 +3956,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>16</v>
       </c>
@@ -3980,7 +3979,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>16</v>
       </c>
@@ -4009,7 +4008,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>16</v>
       </c>
@@ -4038,7 +4037,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>16</v>
       </c>
@@ -4061,7 +4060,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>16</v>
       </c>
@@ -4090,7 +4089,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>16</v>
       </c>
@@ -4119,7 +4118,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>16</v>
       </c>
@@ -4145,7 +4144,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>16</v>
       </c>
@@ -4174,7 +4173,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>16</v>
       </c>
@@ -4203,7 +4202,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>16</v>
       </c>
@@ -4226,7 +4225,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>16</v>
       </c>
@@ -4255,7 +4254,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>16</v>
       </c>
@@ -4281,7 +4280,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>16</v>
       </c>
@@ -4310,7 +4309,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>16</v>
       </c>
@@ -4339,7 +4338,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>16</v>
       </c>
@@ -4362,7 +4361,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>16</v>
       </c>
@@ -4391,7 +4390,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>16</v>
       </c>
@@ -4420,7 +4419,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>16</v>
       </c>
@@ -4449,7 +4448,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>16</v>
       </c>
@@ -4478,7 +4477,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>16</v>
       </c>
@@ -4501,7 +4500,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>16</v>
       </c>
@@ -4524,7 +4523,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>16</v>
       </c>
@@ -4553,7 +4552,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>16</v>
       </c>
@@ -4582,7 +4581,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>16</v>
       </c>
@@ -4605,7 +4604,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>16</v>
       </c>
@@ -4634,7 +4633,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>16</v>
       </c>
@@ -4663,7 +4662,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>16</v>
       </c>
@@ -4690,7 +4689,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>16</v>
       </c>
@@ -4713,7 +4712,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>16</v>
       </c>
@@ -4736,7 +4735,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>16</v>
       </c>
@@ -4765,7 +4764,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>16</v>
       </c>
@@ -4791,7 +4790,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>16</v>
       </c>
@@ -4820,7 +4819,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>16</v>
       </c>
@@ -4846,7 +4845,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>16</v>
       </c>
@@ -4869,7 +4868,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>16</v>
       </c>
@@ -4895,7 +4894,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>16</v>
       </c>
@@ -4924,7 +4923,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>16</v>
       </c>
@@ -4951,7 +4950,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>16</v>
       </c>
@@ -4977,7 +4976,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>16</v>
       </c>
@@ -5006,7 +5005,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>16</v>
       </c>
@@ -5032,7 +5031,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>16</v>
       </c>
@@ -5061,7 +5060,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>16</v>
       </c>
@@ -5087,7 +5086,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>16</v>
       </c>
@@ -5113,7 +5112,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>16</v>
       </c>
@@ -5136,7 +5135,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>16</v>
       </c>
@@ -5165,7 +5164,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>16</v>
       </c>
@@ -5188,7 +5187,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>16</v>
       </c>
@@ -5214,7 +5213,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>16</v>
       </c>
@@ -5240,7 +5239,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>16</v>
       </c>
@@ -5270,7 +5269,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>16</v>
       </c>
@@ -5293,7 +5292,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>16</v>
       </c>
@@ -5322,7 +5321,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>16</v>
       </c>
@@ -5348,7 +5347,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>16</v>
       </c>
@@ -5371,7 +5370,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>16</v>
       </c>
@@ -5397,7 +5396,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>16</v>
       </c>
@@ -5426,7 +5425,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>16</v>
       </c>
@@ -5450,7 +5449,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>16</v>
       </c>
@@ -5473,7 +5472,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>16</v>
       </c>
@@ -5502,7 +5501,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>16</v>
       </c>
@@ -5528,7 +5527,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>16</v>
       </c>
@@ -5554,7 +5553,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>16</v>
       </c>
@@ -5583,7 +5582,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>16</v>
       </c>
@@ -5606,7 +5605,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>16</v>
       </c>
@@ -5629,7 +5628,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>16</v>
       </c>
@@ -5655,7 +5654,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>16</v>
       </c>
@@ -5681,7 +5680,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>16</v>
       </c>
@@ -5710,7 +5709,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>16</v>
       </c>
@@ -5733,7 +5732,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>16</v>
       </c>
@@ -5759,7 +5758,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>16</v>
       </c>
@@ -5785,7 +5784,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>16</v>
       </c>
@@ -5811,7 +5810,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>16</v>
       </c>
@@ -5837,7 +5836,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>16</v>
       </c>
@@ -5863,7 +5862,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>16</v>
       </c>
@@ -5892,7 +5891,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>16</v>
       </c>
@@ -5915,7 +5914,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>16</v>
       </c>
@@ -5938,7 +5937,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>16</v>
       </c>
@@ -5964,7 +5963,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>16</v>
       </c>
@@ -5993,7 +5992,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>16</v>
       </c>
@@ -6020,7 +6019,7 @@
       </c>
       <c r="K133" s="4"/>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>16</v>
       </c>
@@ -6047,7 +6046,7 @@
       </c>
       <c r="K134" s="4"/>
     </row>
-    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>16</v>
       </c>
@@ -6073,7 +6072,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>16</v>
       </c>
@@ -6101,7 +6100,7 @@
       </c>
       <c r="K136" s="4"/>
     </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>16</v>
       </c>
@@ -6124,7 +6123,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>16</v>
       </c>
@@ -6147,7 +6146,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>16</v>
       </c>
@@ -6176,7 +6175,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>16</v>
       </c>
@@ -6203,7 +6202,7 @@
       </c>
       <c r="K140" s="4"/>
     </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>16</v>
       </c>
@@ -6227,7 +6226,7 @@
       </c>
       <c r="K141" s="4"/>
     </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>16</v>
       </c>
@@ -6250,7 +6249,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>16</v>
       </c>
@@ -6277,7 +6276,7 @@
       </c>
       <c r="K143" s="4"/>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>16</v>
       </c>
@@ -6303,7 +6302,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>16</v>
       </c>
@@ -6329,7 +6328,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>16</v>
       </c>
@@ -6352,7 +6351,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>16</v>
       </c>
@@ -6378,7 +6377,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>16</v>
       </c>
@@ -6406,7 +6405,7 @@
       </c>
       <c r="K148" s="4"/>
     </row>
-    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>16</v>
       </c>
@@ -6433,7 +6432,7 @@
       </c>
       <c r="K149" s="4"/>
     </row>
-    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>16</v>
       </c>
@@ -6459,7 +6458,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>16</v>
       </c>
@@ -6486,7 +6485,7 @@
       </c>
       <c r="K151" s="4"/>
     </row>
-    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>16</v>
       </c>
@@ -6512,7 +6511,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>16</v>
       </c>
@@ -6539,7 +6538,7 @@
       </c>
       <c r="K153" s="4"/>
     </row>
-    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>16</v>
       </c>
@@ -6565,7 +6564,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>16</v>
       </c>
@@ -6591,7 +6590,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>16</v>
       </c>
@@ -6614,7 +6613,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>16</v>
       </c>
@@ -6664,7 +6663,7 @@
       </c>
       <c r="K158" s="4"/>
     </row>
-    <row r="159" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>16</v>
       </c>
@@ -6694,7 +6693,7 @@
       </c>
       <c r="L159" s="10"/>
     </row>
-    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>16</v>
       </c>
@@ -6723,7 +6722,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>16</v>
       </c>
@@ -6750,7 +6749,7 @@
       </c>
       <c r="K161" s="4"/>
     </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>16</v>
       </c>
@@ -6779,7 +6778,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>16</v>
       </c>
@@ -6808,7 +6807,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>16</v>
       </c>
@@ -6837,7 +6836,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>16</v>
       </c>
@@ -6860,7 +6859,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>16</v>
       </c>
@@ -6889,7 +6888,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>16</v>
       </c>
@@ -6918,7 +6917,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>16</v>
       </c>
@@ -6941,7 +6940,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>16</v>
       </c>
@@ -6964,7 +6963,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>16</v>
       </c>
@@ -6993,7 +6992,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>16</v>
       </c>
@@ -7021,7 +7020,7 @@
       </c>
       <c r="K171" s="4"/>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>16</v>
       </c>
@@ -7051,7 +7050,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>16</v>
       </c>
@@ -7080,7 +7079,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>16</v>
       </c>
@@ -7106,7 +7105,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>16</v>
       </c>
@@ -7132,7 +7131,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>16</v>
       </c>
@@ -7155,7 +7154,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>16</v>
       </c>
@@ -7178,7 +7177,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>16</v>
       </c>
@@ -7207,7 +7206,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>16</v>
       </c>
@@ -7233,7 +7232,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>16</v>
       </c>
@@ -7259,7 +7258,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>16</v>
       </c>
@@ -7292,13 +7291,7 @@
       <c r="E182"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L181" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Hospitality: Practical Cookery"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L181" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="A2:L182">
     <sortCondition ref="B1"/>
   </sortState>
